--- a/classification/droptc/modern-bert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.6812804937362671</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.8419320583343506</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.3718827068805695</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.8473694920539856</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.668055534362793</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7840673327445984</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.3609532117843628</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.7700269222259521</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.7596349120140076</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.5551580786705017</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.7844712138175964</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.4247835278511047</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.2667930722236633</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.4438653290271759</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.3583367466926575</v>
       </c>
     </row>
     <row r="18">
@@ -931,14 +931,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.4166538119316101</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.2814350724220276</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.3813900947570801</v>
       </c>
     </row>
     <row r="22">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.353506475687027</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.353506475687027</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.6514519453048706</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.2682828009128571</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.5944097638130188</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.4220775961875916</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.5911760926246643</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.7544917464256287</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.6176906824111938</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.5537813901901245</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.592299222946167</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.8512325286865234</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7785205245018005</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5753837823867798</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.5118430852890015</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.8319247364997864</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.463414341211319</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.6106709241867065</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.7774406671524048</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.3058707118034363</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.617429792881012</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.5395362973213196</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.8129643201828003</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.7682288885116577</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.3432904779911041</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.4948690831661224</v>
       </c>
     </row>
     <row r="48">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.3860770463943481</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.6897077560424805</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.7442679405212402</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.3960383236408234</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.8795915246009827</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.7761306762695312</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.8739801049232483</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.4807958006858826</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.8808143138885498</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.4862849414348602</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.712800145149231</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.7700971961021423</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.6451398730278015</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.645238995552063</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.5896860957145691</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.7493051886558533</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.5965741276741028</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3090876340866089</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5461353063583374</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.5265194177627563</v>
       </c>
     </row>
     <row r="69">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.5257523059844971</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.8677988648414612</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.9419943690299988</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.2814350724220276</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.353506475687027</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.5971258878707886</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.6054562926292419</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.8647204637527466</v>
       </c>
     </row>
     <row r="78">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.4220592379570007</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.8370566964149475</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.6208809018135071</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.7462596297264099</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.7549746036529541</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.4166538119316101</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.3926973640918732</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.8723210096359253</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.7190157771110535</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.8045119047164917</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7557774186134338</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5491527318954468</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.8510726094245911</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.6246057152748108</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.2814350724220276</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.6947197914123535</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.6117570400238037</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.620263934135437</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.5020375847816467</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.3048054873943329</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.6172328591346741</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.7110666632652283</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.6981160640716553</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.8764899373054504</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.5747562646865845</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.9462753534317017</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.3048054873943329</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.8401160836219788</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.6386293768882751</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.5313436388969421</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.4813078641891479</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.7040970921516418</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.2823452651500702</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.4916952550411224</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3992396593093872</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.4721226990222931</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.8088935017585754</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.6359373927116394</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.6268699169158936</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.75873202085495</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.271960586309433</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.8609717488288879</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.7621939182281494</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.805462121963501</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.8259276747703552</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.5068486332893372</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.8477354645729065</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.7164998054504395</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.6288589835166931</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.737572193145752</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.7666292190551758</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.5809629559516907</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.668465793132782</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.7759959101676941</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.9246930480003357</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.6346861124038696</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.263418585062027</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.4058831632137299</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.4382890164852142</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.4143568873405457</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.4835064113140106</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.5614415407180786</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.3441573977470398</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.6958549618721008</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.7886956334114075</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.3790242075920105</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.8171420693397522</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4035001397132874</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.6345199942588806</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.6496106386184692</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.6516023874282837</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.8778408169746399</v>
       </c>
     </row>
     <row r="154">
@@ -4739,14 +4739,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.3413753807544708</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.6855546832084656</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.6057589650154114</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.7587401270866394</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.3880828619003296</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.4218610227108002</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.6594781279563904</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.5315734148025513</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.6506702899932861</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.7742913961410522</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.2397923022508621</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.592056930065155</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.6208809018135071</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.591752290725708</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.8127806782722473</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.6713275909423828</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.4866906702518463</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.271960586309433</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.3609532117843628</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.6447098851203918</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.8283618092536926</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.8764899373054504</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.7273433804512024</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.7620962262153625</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.2725988030433655</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.748654305934906</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.6285446882247925</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.685369074344635</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.7436791658401489</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.8120307326316833</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.8741035461425781</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.4000868797302246</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.4166538119316101</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.8895905017852783</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.5747562646865845</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.9222697615623474</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.5802975296974182</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.7651643753051758</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.6516023874282837</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.687921941280365</v>
       </c>
     </row>
     <row r="194">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.336247593164444</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.7244324088096619</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.9183413982391357</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.5757508873939514</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.9402834177017212</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.5175274014472961</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.360688716173172</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.4064173102378845</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.6540418267250061</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.4220592379570007</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.6242870092391968</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.8094322681427002</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.2487983256578445</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.6367841362953186</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.620263934135437</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.8064834475517273</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.5853014588356018</v>
       </c>
     </row>
   </sheetData>
